--- a/JobResults.xlsx
+++ b/JobResults.xlsx
@@ -14,63 +14,245 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Indeed</x:t>
   </x:si>
   <x:si>
-    <x:t>Remote Computer Science Teacher- Teaching Certified- Fall 2021 - job post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elevate K United States•Remote</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$20 an hour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=McAllen%2C%20TX&amp;advn=5932929788035416&amp;vjk=9c31188b24c63776</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Afterschool Classroom Teacher - job post</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Little Paradise AcademyEdinburg, TX </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$7.50 - $8.50 an hour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=McAllen%2C%20TX&amp;advn=1317164031849825&amp;vjk=912ba769e89e43bd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cosmetology Teacher 2021-2022 - job post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edinburg Consolidated Independent School District Edinburg, TX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$50,250 a year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=McAllen%2C%20TX&amp;vjk=7f380879c67c8162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Teacher with Head Softball Coach Supplemental Duties - job post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=McAllen%2C%20TX&amp;vjk=54d0ff5147e97135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Part Time Math Teacher - job post</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">St. Matthew's Episcopal SchoolEdinburg, TX </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$12,600 - $15,600 a year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=McAllen%2C%20TX&amp;vjk=bfe4f6242c6c6122</x:t>
+    <x:t xml:space="preserve">
+Special Education Itinerant Teacher (SEIT)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Success Academy Charter Schools</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From $30 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;advn=3276159607970008&amp;vjk=482e9a9fd7be648e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Atmosphere Academy Public Charter Schools</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$49,209 - $94,363 a year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;advn=5439590204290281&amp;vjk=0e11436ad8413477</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">New Visions for Public Schools New York, NY </x:t>
+  </x:si>
+  <x:si>
+    <x:t>$64,000 - $90,000 a year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;vjk=b4640e13a4e5e7e2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">St HOPE Leadership Academy Charter School New York, NY </x:t>
+  </x:si>
+  <x:si>
+    <x:t>From $69,000 a year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;vjk=a530ae46d83d6856&amp;advn=8787472006602025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THESE OUR TREASURES, INC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From $40,000 a year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;vjk=e544208a0f224888&amp;advn=6270071196028091</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+Customer Service Representative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DNT Construction, LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$75,000 - $100,000 a year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;advn=4721508502728018&amp;vjk=1dacbbf81e5bc6a2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edinburg Consolidated Independent School District</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$14.95 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;vjk=1d194ee1da3a5103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pearson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$11.25 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;vjk=577e3f8899c4f51a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adult Senior Clinic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$8 - $9 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;vjk=c75bd9fd2b3430fe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AIM Media Texas, LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From $8.50 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;vjk=3f910d394e8746d0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G&amp;A Partners</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$20.00 - $21.63 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;vjk=7e900fab79077fb8</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ttec  USA, McAllen, TX </x:t>
+  </x:si>
+  <x:si>
+    <x:t>$14 - $15 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;vjk=dfe35fd7f48148c8&amp;advn=6162857390337383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_e3d7cd69-7253-47ad-af75-a377d6d6e452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster Jobs - Job Search, Career Advice &amp; Hiring Resources | Monster.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandy Springs Health and Rehabilitation Center</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_101ee8f0-0634-4792-810e-70a6145731a1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopebridge, LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_9781636a-5a43-4e40-9fef-7ddf932c7aca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_39b37c9e-9ef3-4669-ada6-c6ce96ea79c7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PDS Tech, Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_6aac9ef8-941c-4c13-8bf1-0b0bd38298f8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STS Technical Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_57a22e96-8fc1-4766-b6d5-d95307ef992c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Momentum Telecom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_b778e73d-8a75-42e0-aecc-a0b5785fe48e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>American Arbitration Association</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_0c0ac8c4-5f6c-4d6d-a672-11fdac3e5471</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_a5463e72-eaf6-4bdd-93fd-663283c9996c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_8fdea12b-422a-4ac7-bd0d-fb7cd00edff0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cox Communications Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_d81c4858-eaf4-44e9-972f-85d405aaf012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A+ Academy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_c5b54cca-0ec8-4d09-b732-fe6920ed43a4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The WIDE School</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_301bd31b-093e-4f0e-abcb-b0cf4a81409d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>One Step at a Time Academy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_e196b50d-6bd2-4011-84a8-86d3d70f3cde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wildwood Nature School</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_2b318c6e-cead-4585-a67d-9539543c90b7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trinity Learning Center</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_4d214695-6f36-47a6-8294-abd91e768e79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Childcare of Brandon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_4f45a77a-9f0b-4cc9-8e2d-6f9c46a53556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOMES FOR THE HOMELESS, INC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_402e05bc-c5f6-42e4-a236-9eadb036a600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scottsdale Academy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_86466fe4-63b4-4239-aa1f-aaf59fcbe59c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Centura Health</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_b25c6170-9100-4aec-b450-ab8f5a6cac39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Urban Sprouts Child Development Center</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -449,16 +631,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -466,16 +648,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -483,16 +665,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -500,16 +682,415 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/JobResults.xlsx
+++ b/JobResults.xlsx
@@ -14,91 +14,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <x:si>
     <x:t>Indeed</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
-Special Education Itinerant Teacher (SEIT)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Success Academy Charter Schools</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From $30 an hour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;advn=3276159607970008&amp;vjk=482e9a9fd7be648e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Atmosphere Academy Public Charter Schools</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$49,209 - $94,363 a year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;advn=5439590204290281&amp;vjk=0e11436ad8413477</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">New Visions for Public Schools New York, NY </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$64,000 - $90,000 a year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;vjk=b4640e13a4e5e7e2</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">St HOPE Leadership Academy Charter School New York, NY </x:t>
-  </x:si>
-  <x:si>
-    <x:t>From $69,000 a year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;vjk=a530ae46d83d6856&amp;advn=8787472006602025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>THESE OUR TREASURES, INC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From $40,000 a year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=new%20york%20city&amp;vjk=e544208a0f224888&amp;advn=6270071196028091</x:t>
+Elementary &amp; Middle School Teacher (Computer, Music or Spani...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northwest School for Deaf and HardofHearing Children</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$67,000 - $99,000 a year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=washington&amp;advn=8696526931681116&amp;vjk=165e26a1686bc67e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Building KidzLynnwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$14 - $15 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=washington&amp;advn=4012838449062243&amp;vjk=95e2b3e6d71c2756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>East African Community Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From $18.50 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=washington&amp;advn=4982187081832138&amp;vjk=3779ac2ad6efc045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Rainbow School</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$18 - $20 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=washington&amp;advn=1072612760750656&amp;vjk=9f84d3104858cbf2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seabury School</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$40,000 - $50,000 a year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=washington&amp;advn=5568120157644696&amp;vjk=9cd37abd0c9a4028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Circle Learning Center</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From $15 an hour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=washington&amp;advn=5749318456170632&amp;vjk=dd242b575e06b07c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sumner Bonney Lake School District</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From $50,114 a year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q=teacher&amp;l=washington&amp;advn=1936166939102102&amp;vjk=e7e9eff8b448014c</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+Customer Service Agent (Mid-Shift)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Head Injury Center</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Up to $400,000 a year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.indeed.com/jobs?q&amp;l=Arlington&amp;vjk=c411f0ae034ab583&amp;advn=7332954190367739</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
 Customer Service Representative</x:t>
   </x:si>
   <x:si>
-    <x:t>DNT Construction, LLC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$75,000 - $100,000 a year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;advn=4721508502728018&amp;vjk=1dacbbf81e5bc6a2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edinburg Consolidated Independent School District</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$14.95 an hour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;vjk=1d194ee1da3a5103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pearson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$11.25 an hour</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;vjk=577e3f8899c4f51a</x:t>
-  </x:si>
-  <x:si>
     <x:t>Adult Senior Clinic</x:t>
   </x:si>
   <x:si>
@@ -129,9 +133,6 @@
     <x:t xml:space="preserve">Ttec  USA, McAllen, TX </x:t>
   </x:si>
   <x:si>
-    <x:t>$14 - $15 an hour</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.indeed.com/jobs?q=data&amp;l=McAllen%2C%20TX&amp;vjk=dfe35fd7f48148c8&amp;advn=6162857390337383</x:t>
   </x:si>
   <x:si>
@@ -253,6 +254,57 @@
   </x:si>
   <x:si>
     <x:t>Urban Sprouts Child Development Center</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_83ffc8fb-3262-46ed-9de2-66afcd560be9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_c3dccf42-0b94-42bf-86cc-9c3fcf708f4a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_e3c06ac9-2124-4dcd-b0ca-e389989a7120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Muse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_d768cdc3-6655-4b3f-838d-0d2ca7d06495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northstar Technologies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_33ee2182-b4f3-45a2-af35-efb2610f499b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eliassen Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_004687e4-9a1b-4d83-8c23-ba77c5274306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CorTech LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_5e17474f-f388-4e28-88cc-edfd1e44d0dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EvenFlow Solutions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_c2986e99-f665-41cc-82f9-e53faa80e09c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_f46249c0-791e-495d-934d-3a381ed45561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dentsu Media</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jobId_73be58d9-a6dc-4c50-9282-3b74ef5f16ee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emory University</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -699,16 +751,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -716,16 +768,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -733,7 +785,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>24</x:v>
@@ -750,16 +802,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -767,16 +819,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -784,16 +836,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -801,13 +853,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>38</x:v>
@@ -1091,6 +1143,280 @@
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="A43" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="A44" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="A45" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="A46" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="A47" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="A48" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="A50" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:5">
+      <x:c r="A51" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5">
+      <x:c r="A52" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>95</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
